--- a/Foundry_Devices.xlsx
+++ b/Foundry_Devices.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Device Name</t>
   </si>
@@ -37,13 +37,13 @@
     <t>a8:f7:d9:81:b1:c5</t>
   </si>
   <si>
-    <t>Foundry-AP02</t>
-  </si>
-  <si>
-    <t>A164522020A93</t>
-  </si>
-  <si>
-    <t>a8:f7:d9:81:b1:cf</t>
+    <t>Brouke st AP1</t>
+  </si>
+  <si>
+    <t>A1605230200C9</t>
+  </si>
+  <si>
+    <t>a8:f7:d9:f0:80:0c</t>
   </si>
   <si>
     <t>Foundry-AP03</t>
@@ -53,60 +53,6 @@
   </si>
   <si>
     <t>a8:f7:d9:81:b2:51</t>
-  </si>
-  <si>
-    <t>Foundry-AP04</t>
-  </si>
-  <si>
-    <t>A164522020A8D</t>
-  </si>
-  <si>
-    <t>a8:f7:d9:81:b1:b1</t>
-  </si>
-  <si>
-    <t>Foundry-AP05</t>
-  </si>
-  <si>
-    <t>A164522020A89</t>
-  </si>
-  <si>
-    <t>a8:f7:d9:81:b1:9d</t>
-  </si>
-  <si>
-    <t>Foundry-AP06</t>
-  </si>
-  <si>
-    <t>A164522020A98</t>
-  </si>
-  <si>
-    <t>a8:f7:d9:81:b1:e8</t>
-  </si>
-  <si>
-    <t>Foundry-AP07</t>
-  </si>
-  <si>
-    <t>A164522020A26</t>
-  </si>
-  <si>
-    <t>a8:f7:d9:81:af:ae</t>
-  </si>
-  <si>
-    <t>Foundry-AP08</t>
-  </si>
-  <si>
-    <t>A164522020AE7</t>
-  </si>
-  <si>
-    <t>a8:f7:d9:81:b3:73</t>
-  </si>
-  <si>
-    <t>Foundry-AP09</t>
-  </si>
-  <si>
-    <t>A164522020AEA</t>
-  </si>
-  <si>
-    <t>a8:f7:d9:81:b3:82</t>
   </si>
 </sst>
 </file>
@@ -124,10 +70,12 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,27 +86,35 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,150 +331,61 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="22.63"/>
-    <col customWidth="1" min="3" max="3" width="13.88"/>
-    <col customWidth="1" min="4" max="4" width="14.0"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
